--- a/DB_PAPILA/ClinicalData/patient_data_os.xlsx
+++ b/DB_PAPILA/ClinicalData/patient_data_os.xlsx
@@ -501,7 +501,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>#002</t>
         </is>
@@ -542,7 +542,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>#004</t>
         </is>
@@ -583,7 +583,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>#005</t>
         </is>
@@ -626,7 +626,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>#006</t>
         </is>
@@ -667,7 +667,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>#007</t>
         </is>
@@ -706,7 +706,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>#008</t>
         </is>
@@ -745,7 +745,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>#009</t>
         </is>
@@ -786,7 +786,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>#010</t>
         </is>
@@ -827,7 +827,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>#013</t>
         </is>
@@ -870,7 +870,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>#014</t>
         </is>
@@ -913,7 +913,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>#015</t>
         </is>
@@ -956,7 +956,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>#016</t>
         </is>
@@ -997,7 +997,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>#018</t>
         </is>
@@ -1038,7 +1038,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>#019</t>
         </is>
@@ -1075,7 +1075,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>#020</t>
         </is>
@@ -1114,7 +1114,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>#021</t>
         </is>
@@ -1155,7 +1155,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>#023</t>
         </is>
@@ -1196,7 +1196,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>#024</t>
         </is>
@@ -1239,7 +1239,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>#025</t>
         </is>
@@ -1282,7 +1282,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>#026</t>
         </is>
@@ -1323,7 +1323,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>#027</t>
         </is>
@@ -1364,7 +1364,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>#028</t>
         </is>
@@ -1403,7 +1403,7 @@
       <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>#029</t>
         </is>
@@ -1442,7 +1442,7 @@
       <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>#030</t>
         </is>
@@ -1481,7 +1481,7 @@
       <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>#031</t>
         </is>
@@ -1520,7 +1520,7 @@
       <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>#032</t>
         </is>
@@ -1559,7 +1559,7 @@
       <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>#033</t>
         </is>
@@ -1598,7 +1598,7 @@
       <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>#034</t>
         </is>
@@ -1637,7 +1637,7 @@
       <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>#035</t>
         </is>
@@ -1674,7 +1674,7 @@
       <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>#036</t>
         </is>
@@ -1713,7 +1713,7 @@
       <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>#037</t>
         </is>
@@ -1752,7 +1752,7 @@
       <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>#038</t>
         </is>
@@ -1789,7 +1789,7 @@
       <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>#039</t>
         </is>
@@ -1828,7 +1828,7 @@
       <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>#041</t>
         </is>
@@ -1869,7 +1869,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>#042</t>
         </is>
@@ -1910,7 +1910,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>#044</t>
         </is>
@@ -1951,7 +1951,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>#045</t>
         </is>
@@ -1994,7 +1994,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>#046</t>
         </is>
@@ -2033,7 +2033,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>#047</t>
         </is>
@@ -2074,7 +2074,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>#048</t>
         </is>
@@ -2115,7 +2115,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>#050</t>
         </is>
@@ -2158,7 +2158,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>#051</t>
         </is>
@@ -2201,7 +2201,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>#053</t>
         </is>
@@ -2238,7 +2238,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>#055</t>
         </is>
@@ -2279,7 +2279,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>#056</t>
         </is>
@@ -2320,7 +2320,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>#057</t>
         </is>
@@ -2359,7 +2359,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>#062</t>
         </is>
@@ -2400,7 +2400,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>#064</t>
         </is>
@@ -2441,7 +2441,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>#065</t>
         </is>
@@ -2482,7 +2482,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>#066</t>
         </is>
@@ -2525,7 +2525,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>#067</t>
         </is>
@@ -2568,7 +2568,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>#068</t>
         </is>
@@ -2609,7 +2609,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>#069</t>
         </is>
@@ -2650,7 +2650,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>#072</t>
         </is>
@@ -2687,7 +2687,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>#073</t>
         </is>
@@ -2728,7 +2728,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>#074</t>
         </is>
@@ -2769,7 +2769,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>#077</t>
         </is>
@@ -2810,7 +2810,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>#079</t>
         </is>
@@ -2849,7 +2849,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>#081</t>
         </is>
@@ -2890,7 +2890,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>#084</t>
         </is>
@@ -2931,7 +2931,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>#087</t>
         </is>
@@ -2972,7 +2972,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>#088</t>
         </is>
@@ -3013,7 +3013,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>#089</t>
         </is>
@@ -3054,7 +3054,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>#090</t>
         </is>
@@ -3095,7 +3095,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>#091</t>
         </is>
@@ -3136,7 +3136,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="1" t="inlineStr">
         <is>
           <t>#092</t>
         </is>
@@ -3177,7 +3177,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>#093</t>
         </is>
@@ -3218,7 +3218,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="1" t="inlineStr">
         <is>
           <t>#096</t>
         </is>
@@ -3261,7 +3261,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>#098</t>
         </is>
@@ -3300,7 +3300,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>#101</t>
         </is>
@@ -3341,7 +3341,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>#102</t>
         </is>
@@ -3382,7 +3382,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>#104</t>
         </is>
@@ -3425,7 +3425,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="1" t="inlineStr">
         <is>
           <t>#105</t>
         </is>
@@ -3466,7 +3466,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="1" t="inlineStr">
         <is>
           <t>#106</t>
         </is>
@@ -3507,7 +3507,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="1" t="inlineStr">
         <is>
           <t>#107</t>
         </is>
@@ -3548,7 +3548,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="1" t="inlineStr">
         <is>
           <t>#108</t>
         </is>
@@ -3589,7 +3589,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="1" t="inlineStr">
         <is>
           <t>#112</t>
         </is>
@@ -3632,7 +3632,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="1" t="inlineStr">
         <is>
           <t>#113</t>
         </is>
@@ -3673,7 +3673,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="1" t="inlineStr">
         <is>
           <t>#114</t>
         </is>
@@ -3712,7 +3712,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="1" t="inlineStr">
         <is>
           <t>#116</t>
         </is>
@@ -3751,7 +3751,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="1" t="inlineStr">
         <is>
           <t>#119</t>
         </is>
@@ -3792,7 +3792,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="1" t="inlineStr">
         <is>
           <t>#120</t>
         </is>
@@ -3831,7 +3831,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="1" t="inlineStr">
         <is>
           <t>#121</t>
         </is>
@@ -3872,7 +3872,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="1" t="inlineStr">
         <is>
           <t>#122</t>
         </is>
@@ -3909,7 +3909,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="1" t="inlineStr">
         <is>
           <t>#123</t>
         </is>
@@ -3950,7 +3950,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="1" t="inlineStr">
         <is>
           <t>#124</t>
         </is>
@@ -3991,7 +3991,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="1" t="inlineStr">
         <is>
           <t>#125</t>
         </is>
@@ -4030,7 +4030,7 @@
       <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>#126</t>
         </is>
@@ -4069,7 +4069,7 @@
       <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="1" t="inlineStr">
         <is>
           <t>#127</t>
         </is>
@@ -4108,7 +4108,7 @@
       <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="1" t="inlineStr">
         <is>
           <t>#128</t>
         </is>
@@ -4147,7 +4147,7 @@
       <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="1" t="inlineStr">
         <is>
           <t>#129</t>
         </is>
@@ -4186,7 +4186,7 @@
       <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="1" t="inlineStr">
         <is>
           <t>#130</t>
         </is>
@@ -4225,7 +4225,7 @@
       <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="1" t="inlineStr">
         <is>
           <t>#131</t>
         </is>
@@ -4264,7 +4264,7 @@
       <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="1" t="inlineStr">
         <is>
           <t>#132</t>
         </is>
@@ -4303,7 +4303,7 @@
       <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="1" t="inlineStr">
         <is>
           <t>#133</t>
         </is>
@@ -4342,7 +4342,7 @@
       <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>#134</t>
         </is>
@@ -4381,7 +4381,7 @@
       <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>#135</t>
         </is>
@@ -4420,7 +4420,7 @@
       <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="1" t="inlineStr">
         <is>
           <t>#136</t>
         </is>
@@ -4459,7 +4459,7 @@
       <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="1" t="inlineStr">
         <is>
           <t>#137</t>
         </is>
@@ -4498,7 +4498,7 @@
       <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>#138</t>
         </is>
@@ -4537,7 +4537,7 @@
       <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" s="1" t="inlineStr">
         <is>
           <t>#139</t>
         </is>
@@ -4576,7 +4576,7 @@
       <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="1" t="inlineStr">
         <is>
           <t>#140</t>
         </is>
@@ -4613,7 +4613,7 @@
       <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="1" t="inlineStr">
         <is>
           <t>#141</t>
         </is>
@@ -4652,7 +4652,7 @@
       <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105" s="1" t="inlineStr">
         <is>
           <t>#142</t>
         </is>
@@ -4691,7 +4691,7 @@
       <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="1" t="inlineStr">
         <is>
           <t>#143</t>
         </is>
@@ -4730,7 +4730,7 @@
       <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107" s="1" t="inlineStr">
         <is>
           <t>#144</t>
         </is>
@@ -4769,7 +4769,7 @@
       <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="A108" s="1" t="inlineStr">
         <is>
           <t>#146</t>
         </is>
@@ -4808,7 +4808,7 @@
       <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="A109" s="1" t="inlineStr">
         <is>
           <t>#147</t>
         </is>
@@ -4847,7 +4847,7 @@
       <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" s="1" t="inlineStr">
         <is>
           <t>#149</t>
         </is>
@@ -4886,7 +4886,7 @@
       <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="A111" s="1" t="inlineStr">
         <is>
           <t>#150</t>
         </is>
@@ -4925,7 +4925,7 @@
       <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="A112" s="1" t="inlineStr">
         <is>
           <t>#151</t>
         </is>
@@ -4964,7 +4964,7 @@
       <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" s="1" t="inlineStr">
         <is>
           <t>#152</t>
         </is>
@@ -4999,7 +4999,7 @@
       <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114" s="1" t="inlineStr">
         <is>
           <t>#153</t>
         </is>
@@ -5038,7 +5038,7 @@
       <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="1" t="inlineStr">
         <is>
           <t>#154</t>
         </is>
@@ -5077,7 +5077,7 @@
       <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="1" t="inlineStr">
         <is>
           <t>#155</t>
         </is>
@@ -5116,7 +5116,7 @@
       <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="1" t="inlineStr">
         <is>
           <t>#156</t>
         </is>
@@ -5155,7 +5155,7 @@
       <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>#157</t>
         </is>
@@ -5194,7 +5194,7 @@
       <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>#158</t>
         </is>
@@ -5233,7 +5233,7 @@
       <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120" s="1" t="inlineStr">
         <is>
           <t>#159</t>
         </is>
@@ -5272,7 +5272,7 @@
       <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="A121" s="1" t="inlineStr">
         <is>
           <t>#160</t>
         </is>
@@ -5311,7 +5311,7 @@
       <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="A122" s="1" t="inlineStr">
         <is>
           <t>#162</t>
         </is>
@@ -5350,7 +5350,7 @@
       <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="A123" s="1" t="inlineStr">
         <is>
           <t>#163</t>
         </is>
@@ -5389,7 +5389,7 @@
       <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" s="1" t="inlineStr">
         <is>
           <t>#164</t>
         </is>
@@ -5428,7 +5428,7 @@
       <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" s="1" t="inlineStr">
         <is>
           <t>#165</t>
         </is>
@@ -5467,7 +5467,7 @@
       <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" s="1" t="inlineStr">
         <is>
           <t>#166</t>
         </is>
@@ -5506,7 +5506,7 @@
       <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" s="1" t="inlineStr">
         <is>
           <t>#168</t>
         </is>
@@ -5545,7 +5545,7 @@
       <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="A128" s="1" t="inlineStr">
         <is>
           <t>#169</t>
         </is>
@@ -5584,7 +5584,7 @@
       <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="A129" s="1" t="inlineStr">
         <is>
           <t>#170</t>
         </is>
@@ -5623,7 +5623,7 @@
       <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="A130" s="1" t="inlineStr">
         <is>
           <t>#171</t>
         </is>
@@ -5662,7 +5662,7 @@
       <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="A131" s="1" t="inlineStr">
         <is>
           <t>#172</t>
         </is>
@@ -5701,7 +5701,7 @@
       <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="A132" s="1" t="inlineStr">
         <is>
           <t>#174</t>
         </is>
@@ -5740,7 +5740,7 @@
       <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="A133" s="1" t="inlineStr">
         <is>
           <t>#175</t>
         </is>
@@ -5779,7 +5779,7 @@
       <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="A134" s="1" t="inlineStr">
         <is>
           <t>#176</t>
         </is>
@@ -5818,7 +5818,7 @@
       <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="A135" s="1" t="inlineStr">
         <is>
           <t>#177</t>
         </is>
@@ -5857,7 +5857,7 @@
       <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="A136" s="1" t="inlineStr">
         <is>
           <t>#178</t>
         </is>
@@ -5896,7 +5896,7 @@
       <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="A137" s="1" t="inlineStr">
         <is>
           <t>#179</t>
         </is>
@@ -5935,7 +5935,7 @@
       <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="A138" s="1" t="inlineStr">
         <is>
           <t>#180</t>
         </is>
@@ -5976,7 +5976,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="A139" s="1" t="inlineStr">
         <is>
           <t>#181</t>
         </is>
@@ -6015,7 +6015,7 @@
       <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="A140" s="1" t="inlineStr">
         <is>
           <t>#182</t>
         </is>
@@ -6054,7 +6054,7 @@
       <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="A141" s="1" t="inlineStr">
         <is>
           <t>#183</t>
         </is>
@@ -6093,7 +6093,7 @@
       <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="A142" s="1" t="inlineStr">
         <is>
           <t>#184</t>
         </is>
@@ -6132,7 +6132,7 @@
       <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="A143" s="1" t="inlineStr">
         <is>
           <t>#186</t>
         </is>
@@ -6171,7 +6171,7 @@
       <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="A144" s="1" t="inlineStr">
         <is>
           <t>#187</t>
         </is>
@@ -6210,7 +6210,7 @@
       <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="A145" s="1" t="inlineStr">
         <is>
           <t>#188</t>
         </is>
@@ -6249,7 +6249,7 @@
       <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="A146" s="1" t="inlineStr">
         <is>
           <t>#189</t>
         </is>
@@ -6288,7 +6288,7 @@
       <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="A147" s="1" t="inlineStr">
         <is>
           <t>#190</t>
         </is>
@@ -6327,7 +6327,7 @@
       <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="A148" s="1" t="inlineStr">
         <is>
           <t>#191</t>
         </is>
@@ -6366,7 +6366,7 @@
       <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="A149" s="1" t="inlineStr">
         <is>
           <t>#192</t>
         </is>
@@ -6405,7 +6405,7 @@
       <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="A150" s="1" t="inlineStr">
         <is>
           <t>#193</t>
         </is>
@@ -6448,7 +6448,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="A151" s="1" t="inlineStr">
         <is>
           <t>#194</t>
         </is>
@@ -6487,7 +6487,7 @@
       <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="A152" s="1" t="inlineStr">
         <is>
           <t>#195</t>
         </is>
@@ -6528,7 +6528,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
+      <c r="A153" s="1" t="inlineStr">
         <is>
           <t>#196</t>
         </is>
@@ -6567,7 +6567,7 @@
       <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="A154" s="1" t="inlineStr">
         <is>
           <t>#197</t>
         </is>
@@ -6606,7 +6606,7 @@
       <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
+      <c r="A155" s="1" t="inlineStr">
         <is>
           <t>#198</t>
         </is>
@@ -6645,7 +6645,7 @@
       <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
+      <c r="A156" s="1" t="inlineStr">
         <is>
           <t>#199</t>
         </is>
@@ -6684,7 +6684,7 @@
       <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
+      <c r="A157" s="1" t="inlineStr">
         <is>
           <t>#200</t>
         </is>
@@ -6721,7 +6721,7 @@
       <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
+      <c r="A158" s="1" t="inlineStr">
         <is>
           <t>#201</t>
         </is>
@@ -6760,7 +6760,7 @@
       <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
+      <c r="A159" s="1" t="inlineStr">
         <is>
           <t>#202</t>
         </is>
@@ -6799,7 +6799,7 @@
       <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
+      <c r="A160" s="1" t="inlineStr">
         <is>
           <t>#203</t>
         </is>
@@ -6838,7 +6838,7 @@
       <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
+      <c r="A161" s="1" t="inlineStr">
         <is>
           <t>#204</t>
         </is>
@@ -6877,7 +6877,7 @@
       <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
+      <c r="A162" s="1" t="inlineStr">
         <is>
           <t>#205</t>
         </is>
@@ -6916,7 +6916,7 @@
       <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
+      <c r="A163" s="1" t="inlineStr">
         <is>
           <t>#206</t>
         </is>
@@ -6955,7 +6955,7 @@
       <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
+      <c r="A164" s="1" t="inlineStr">
         <is>
           <t>#207</t>
         </is>
@@ -6994,7 +6994,7 @@
       <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
+      <c r="A165" s="1" t="inlineStr">
         <is>
           <t>#208</t>
         </is>
@@ -7033,7 +7033,7 @@
       <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
+      <c r="A166" s="1" t="inlineStr">
         <is>
           <t>#209</t>
         </is>
@@ -7070,7 +7070,7 @@
       <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
+      <c r="A167" s="1" t="inlineStr">
         <is>
           <t>#210</t>
         </is>
@@ -7111,7 +7111,7 @@
       <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
+      <c r="A168" s="1" t="inlineStr">
         <is>
           <t>#211</t>
         </is>
@@ -7152,7 +7152,7 @@
       <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
+      <c r="A169" s="1" t="inlineStr">
         <is>
           <t>#212</t>
         </is>
@@ -7191,7 +7191,7 @@
       <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
+      <c r="A170" s="1" t="inlineStr">
         <is>
           <t>#213</t>
         </is>
@@ -7222,7 +7222,7 @@
       <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
+      <c r="A171" s="1" t="inlineStr">
         <is>
           <t>#214</t>
         </is>
@@ -7261,7 +7261,7 @@
       <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
+      <c r="A172" s="1" t="inlineStr">
         <is>
           <t>#215</t>
         </is>
@@ -7300,7 +7300,7 @@
       <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
+      <c r="A173" s="1" t="inlineStr">
         <is>
           <t>#216</t>
         </is>
@@ -7339,7 +7339,7 @@
       <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
+      <c r="A174" s="1" t="inlineStr">
         <is>
           <t>#217</t>
         </is>
@@ -7378,7 +7378,7 @@
       <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
+      <c r="A175" s="1" t="inlineStr">
         <is>
           <t>#218</t>
         </is>
@@ -7415,7 +7415,7 @@
       <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
+      <c r="A176" s="1" t="inlineStr">
         <is>
           <t>#219</t>
         </is>
@@ -7454,7 +7454,7 @@
       <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
+      <c r="A177" s="1" t="inlineStr">
         <is>
           <t>#220</t>
         </is>
@@ -7493,7 +7493,7 @@
       <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
+      <c r="A178" s="1" t="inlineStr">
         <is>
           <t>#221</t>
         </is>
@@ -7532,7 +7532,7 @@
       <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
+      <c r="A179" s="1" t="inlineStr">
         <is>
           <t>#222</t>
         </is>
@@ -7571,7 +7571,7 @@
       <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
+      <c r="A180" s="1" t="inlineStr">
         <is>
           <t>#223</t>
         </is>
@@ -7610,7 +7610,7 @@
       <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
+      <c r="A181" s="1" t="inlineStr">
         <is>
           <t>#224</t>
         </is>
@@ -7649,7 +7649,7 @@
       <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
+      <c r="A182" s="1" t="inlineStr">
         <is>
           <t>#225</t>
         </is>
@@ -7688,7 +7688,7 @@
       <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
+      <c r="A183" s="1" t="inlineStr">
         <is>
           <t>#227</t>
         </is>
@@ -7727,7 +7727,7 @@
       <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
+      <c r="A184" s="1" t="inlineStr">
         <is>
           <t>#228</t>
         </is>
@@ -7766,7 +7766,7 @@
       <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
+      <c r="A185" s="1" t="inlineStr">
         <is>
           <t>#229</t>
         </is>
@@ -7805,7 +7805,7 @@
       <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
+      <c r="A186" s="1" t="inlineStr">
         <is>
           <t>#230</t>
         </is>
@@ -7844,7 +7844,7 @@
       <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
+      <c r="A187" s="1" t="inlineStr">
         <is>
           <t>#231</t>
         </is>
@@ -7883,7 +7883,7 @@
       <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
+      <c r="A188" s="1" t="inlineStr">
         <is>
           <t>#232</t>
         </is>
@@ -7922,7 +7922,7 @@
       <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
+      <c r="A189" s="1" t="inlineStr">
         <is>
           <t>#233</t>
         </is>
@@ -7963,7 +7963,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
+      <c r="A190" s="1" t="inlineStr">
         <is>
           <t>#234</t>
         </is>
@@ -8002,7 +8002,7 @@
       <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
+      <c r="A191" s="1" t="inlineStr">
         <is>
           <t>#235</t>
         </is>
@@ -8041,7 +8041,7 @@
       <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
+      <c r="A192" s="1" t="inlineStr">
         <is>
           <t>#236</t>
         </is>
@@ -8080,7 +8080,7 @@
       <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
+      <c r="A193" s="1" t="inlineStr">
         <is>
           <t>#237</t>
         </is>
@@ -8119,7 +8119,7 @@
       <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
+      <c r="A194" s="1" t="inlineStr">
         <is>
           <t>#238</t>
         </is>
@@ -8158,7 +8158,7 @@
       <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
+      <c r="A195" s="1" t="inlineStr">
         <is>
           <t>#239</t>
         </is>
@@ -8197,7 +8197,7 @@
       <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
+      <c r="A196" s="1" t="inlineStr">
         <is>
           <t>#240</t>
         </is>
@@ -8236,7 +8236,7 @@
       <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
+      <c r="A197" s="1" t="inlineStr">
         <is>
           <t>#241</t>
         </is>
@@ -8275,7 +8275,7 @@
       <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
+      <c r="A198" s="1" t="inlineStr">
         <is>
           <t>#242</t>
         </is>
@@ -8314,7 +8314,7 @@
       <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
+      <c r="A199" s="1" t="inlineStr">
         <is>
           <t>#243</t>
         </is>
@@ -8353,7 +8353,7 @@
       <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
+      <c r="A200" s="1" t="inlineStr">
         <is>
           <t>#244</t>
         </is>
@@ -8390,7 +8390,7 @@
       <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
+      <c r="A201" s="1" t="inlineStr">
         <is>
           <t>#245</t>
         </is>
@@ -8429,7 +8429,7 @@
       <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
+      <c r="A202" s="1" t="inlineStr">
         <is>
           <t>#246</t>
         </is>
@@ -8468,7 +8468,7 @@
       <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
+      <c r="A203" s="1" t="inlineStr">
         <is>
           <t>#248</t>
         </is>
@@ -8507,7 +8507,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
+      <c r="A204" s="1" t="inlineStr">
         <is>
           <t>#249</t>
         </is>
@@ -8546,7 +8546,7 @@
       <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
+      <c r="A205" s="1" t="inlineStr">
         <is>
           <t>#250</t>
         </is>
@@ -8585,7 +8585,7 @@
       <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
+      <c r="A206" s="1" t="inlineStr">
         <is>
           <t>#251</t>
         </is>
@@ -8624,7 +8624,7 @@
       <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
+      <c r="A207" s="1" t="inlineStr">
         <is>
           <t>#252</t>
         </is>
@@ -8663,7 +8663,7 @@
       <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
+      <c r="A208" s="1" t="inlineStr">
         <is>
           <t>#253</t>
         </is>
@@ -8702,7 +8702,7 @@
       <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
+      <c r="A209" s="1" t="inlineStr">
         <is>
           <t>#254</t>
         </is>
@@ -8741,7 +8741,7 @@
       <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
+      <c r="A210" s="1" t="inlineStr">
         <is>
           <t>#255</t>
         </is>
@@ -8780,7 +8780,7 @@
       <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
+      <c r="A211" s="1" t="inlineStr">
         <is>
           <t>#256</t>
         </is>
@@ -8817,7 +8817,7 @@
       <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
+      <c r="A212" s="1" t="inlineStr">
         <is>
           <t>#257</t>
         </is>
@@ -8856,7 +8856,7 @@
       <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
+      <c r="A213" s="1" t="inlineStr">
         <is>
           <t>#258</t>
         </is>
@@ -8895,7 +8895,7 @@
       <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
+      <c r="A214" s="1" t="inlineStr">
         <is>
           <t>#259</t>
         </is>
@@ -8932,7 +8932,7 @@
       <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
+      <c r="A215" s="1" t="inlineStr">
         <is>
           <t>#260</t>
         </is>
@@ -8971,7 +8971,7 @@
       <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
+      <c r="A216" s="1" t="inlineStr">
         <is>
           <t>#261</t>
         </is>
@@ -9010,7 +9010,7 @@
       <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
+      <c r="A217" s="1" t="inlineStr">
         <is>
           <t>#262</t>
         </is>
@@ -9049,7 +9049,7 @@
       <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
+      <c r="A218" s="1" t="inlineStr">
         <is>
           <t>#264</t>
         </is>
@@ -9090,7 +9090,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
+      <c r="A219" s="1" t="inlineStr">
         <is>
           <t>#265</t>
         </is>
@@ -9131,7 +9131,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
+      <c r="A220" s="1" t="inlineStr">
         <is>
           <t>#266</t>
         </is>
@@ -9170,7 +9170,7 @@
       <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
+      <c r="A221" s="1" t="inlineStr">
         <is>
           <t>#267</t>
         </is>
@@ -9207,7 +9207,7 @@
       <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
+      <c r="A222" s="1" t="inlineStr">
         <is>
           <t>#268</t>
         </is>
@@ -9246,7 +9246,7 @@
       <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
+      <c r="A223" s="1" t="inlineStr">
         <is>
           <t>#269</t>
         </is>
@@ -9285,7 +9285,7 @@
       <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
+      <c r="A224" s="1" t="inlineStr">
         <is>
           <t>#270</t>
         </is>
@@ -9324,7 +9324,7 @@
       <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
+      <c r="A225" s="1" t="inlineStr">
         <is>
           <t>#271</t>
         </is>
@@ -9363,7 +9363,7 @@
       <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
+      <c r="A226" s="1" t="inlineStr">
         <is>
           <t>#272</t>
         </is>
@@ -9402,7 +9402,7 @@
       <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
+      <c r="A227" s="1" t="inlineStr">
         <is>
           <t>#273</t>
         </is>
@@ -9441,7 +9441,7 @@
       <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
+      <c r="A228" s="1" t="inlineStr">
         <is>
           <t>#274</t>
         </is>
@@ -9480,7 +9480,7 @@
       <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
+      <c r="A229" s="1" t="inlineStr">
         <is>
           <t>#275</t>
         </is>
@@ -9519,7 +9519,7 @@
       <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
+      <c r="A230" s="1" t="inlineStr">
         <is>
           <t>#276</t>
         </is>
@@ -9556,7 +9556,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
+      <c r="A231" s="1" t="inlineStr">
         <is>
           <t>#277</t>
         </is>
@@ -9595,7 +9595,7 @@
       <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
+      <c r="A232" s="1" t="inlineStr">
         <is>
           <t>#280</t>
         </is>
@@ -9634,7 +9634,7 @@
       <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
+      <c r="A233" s="1" t="inlineStr">
         <is>
           <t>#281</t>
         </is>
@@ -9673,7 +9673,7 @@
       <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
+      <c r="A234" s="1" t="inlineStr">
         <is>
           <t>#282</t>
         </is>
@@ -9712,7 +9712,7 @@
       <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
+      <c r="A235" s="1" t="inlineStr">
         <is>
           <t>#283</t>
         </is>
@@ -9751,7 +9751,7 @@
       <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
+      <c r="A236" s="1" t="inlineStr">
         <is>
           <t>#284</t>
         </is>
@@ -9790,7 +9790,7 @@
       <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
+      <c r="A237" s="1" t="inlineStr">
         <is>
           <t>#285</t>
         </is>
@@ -9829,7 +9829,7 @@
       <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
+      <c r="A238" s="1" t="inlineStr">
         <is>
           <t>#286</t>
         </is>
@@ -9868,7 +9868,7 @@
       <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
+      <c r="A239" s="1" t="inlineStr">
         <is>
           <t>#287</t>
         </is>
@@ -9907,7 +9907,7 @@
       <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
+      <c r="A240" s="1" t="inlineStr">
         <is>
           <t>#288</t>
         </is>
@@ -9946,7 +9946,7 @@
       <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
+      <c r="A241" s="1" t="inlineStr">
         <is>
           <t>#289</t>
         </is>
@@ -9985,7 +9985,7 @@
       <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
+      <c r="A242" s="1" t="inlineStr">
         <is>
           <t>#290</t>
         </is>
@@ -10024,7 +10024,7 @@
       <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
+      <c r="A243" s="1" t="inlineStr">
         <is>
           <t>#291</t>
         </is>
@@ -10063,7 +10063,7 @@
       <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
+      <c r="A244" s="1" t="inlineStr">
         <is>
           <t>#292</t>
         </is>
@@ -10102,16 +10102,20 @@
       <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
+      <c r="A245" s="1" t="inlineStr">
         <is>
           <t>#293</t>
         </is>
       </c>
-      <c r="B245" t="n">
-        <v>39</v>
-      </c>
-      <c r="C245" t="n">
-        <v>1</v>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D245" t="n">
         <v>0</v>
@@ -10141,20 +10145,16 @@
       <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>#296</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>#294</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>21</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
       </c>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr"/>
